--- a/Study 3/Shocks/GCAM/NDC_LTT - 2100.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2100.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.01937517415513679</v>
+        <v>0.01937517415513678</v>
       </c>
     </row>
     <row r="3">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.1220816172692963</v>
+        <v>0.1220816172692964</v>
       </c>
     </row>
     <row r="5">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.02067419356472415</v>
+        <v>0.02067419356472416</v>
       </c>
     </row>
     <row r="9">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.004746278293601677</v>
+        <v>0.004746278293601676</v>
       </c>
     </row>
     <row r="11">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.06546677748738443</v>
+        <v>0.06546677748738444</v>
       </c>
     </row>
     <row r="13">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.003133701882625682</v>
+        <v>0.003133701882625681</v>
       </c>
     </row>
     <row r="15">
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.009851727415058305</v>
+        <v>0.009851727415058307</v>
       </c>
     </row>
     <row r="17">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.05196575583504274</v>
+        <v>0.05196575583504275</v>
       </c>
     </row>
     <row r="21">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.4842978913200837</v>
+        <v>0.4842978913200836</v>
       </c>
     </row>
     <row r="23">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0002959509282817055</v>
+        <v>0.0002959509282817054</v>
       </c>
     </row>
     <row r="27">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.01861440334705235</v>
+        <v>0.01861440334705236</v>
       </c>
     </row>
     <row r="29">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.005212078910834388</v>
+        <v>0.005212078910834386</v>
       </c>
     </row>
     <row r="31">
